--- a/3. Godzilla-market/Расходы.xlsx
+++ b/3. Godzilla-market/Расходы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Kwork\3. Godzilla-market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\муз мыси\Kwork\3. Godzilla-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE7CB14-979B-4F7E-ACE0-276D885BC8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15032D18-EF3D-4DC0-A314-F19D754A76D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26670" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>U7w!uU6n6syx</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -73,6 +61,9 @@
   </si>
   <si>
     <t>Elementor Pro</t>
+  </si>
+  <si>
+    <t>RgZzfLb@5U4y</t>
   </si>
 </sst>
 </file>
@@ -80,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -390,9 +381,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -402,6 +390,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,17 +423,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,7 +710,7 @@
   <dimension ref="C2:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,118 +727,118 @@
   <sheetData>
     <row r="2" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="16"/>
+      <c r="C3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19"/>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C4" s="20"/>
-      <c r="D4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>4</v>
+      <c r="C4" s="23"/>
+      <c r="D4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="23"/>
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="20"/>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>0</v>
+      <c r="E7" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="23"/>
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="20"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="15"/>
       <c r="P14" s="2"/>
       <c r="U14" s="3"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="20"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="15"/>
       <c r="P15" s="2"/>
       <c r="U15" s="3"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="21"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="16"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="25">
+      <c r="E17" s="17">
         <f xml:space="preserve"> SUM(E9:E16)</f>
         <v>479</v>
       </c>
@@ -861,6 +852,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{6DA402B8-76A2-497D-A29E-518D31C30C1B}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{29DA5A94-4E63-4E99-A814-7C4480BAA11C}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{40DE8952-C0D7-403A-A80C-E5213D823005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3. Godzilla-market/Расходы.xlsx
+++ b/3. Godzilla-market/Расходы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\муз мыси\Kwork\3. Godzilla-market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Kwork\myKwork\3. Godzilla-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15032D18-EF3D-4DC0-A314-F19D754A76D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985E16C-84A4-4702-85EC-0116CFAC3942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -63,7 +72,7 @@
     <t>Elementor Pro</t>
   </si>
   <si>
-    <t>RgZzfLb@5U4y</t>
+    <t>RS?MWck0c3Os</t>
   </si>
 </sst>
 </file>
@@ -402,6 +411,9 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,18 +736,18 @@
   <sheetData>
     <row r="2" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="20"/>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
@@ -749,7 +758,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +767,7 @@
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
@@ -767,23 +776,23 @@
       </c>
     </row>
     <row r="7" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="23"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
@@ -792,7 +801,7 @@
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
@@ -801,22 +810,22 @@
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="8"/>
       <c r="E14" s="15"/>
       <c r="P14" s="2"/>
@@ -824,7 +833,7 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
       <c r="P15" s="2"/>
@@ -832,7 +841,7 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="24"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
       <c r="P16" s="2"/>
@@ -852,7 +861,7 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{6DA402B8-76A2-497D-A29E-518D31C30C1B}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{29DA5A94-4E63-4E99-A814-7C4480BAA11C}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{40DE8952-C0D7-403A-A80C-E5213D823005}"/>
+    <hyperlink ref="E7" r:id="rId3" display="RgZzfLb@5U4y" xr:uid="{40DE8952-C0D7-403A-A80C-E5213D823005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3. Godzilla-market/Расходы.xlsx
+++ b/3. Godzilla-market/Расходы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Kwork\myKwork\3. Godzilla-market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\муз мыси\myKwork\3. Godzilla-market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985E16C-84A4-4702-85EC-0116CFAC3942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7854-F356-4A5A-8A31-51A97C09DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -719,7 +710,7 @@
   <dimension ref="C2:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
